--- a/data/trans_dic/P25_7-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25_7-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece dolor crónico (pecho; espalda, cuello, hombro, cintura (cervical/lumbar); migrañas/jaquecas/cefaleas crónicas/dolor de cabeza frecuente)</t>
+          <t>Población que padece dolor crónico (pecho; espalda, cuello, hombro, cintura (cervical/lumbar); migrañas/jaquecas/cefaleas crónicas/dolor de cabeza frecuente) (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>28,86%</t>
+          <t>24,62%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>22,76%</t>
+          <t>27,16%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>32,86%</t>
+          <t>32,41%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>31,35%</t>
+          <t>29,11%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>46,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>40,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>44,58%</t>
+          <t>50,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>46,71%</t>
+          <t>42,87%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>38,77%</t>
+          <t>46,61%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>32,63%</t>
+          <t>48,58%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>39,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>39,86%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>39,16%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>35,74%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>40,26%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>40,61%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,36; 38,59</t>
+          <t>16,11; 33,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18,17; 28,69</t>
+          <t>21,23; 34,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,81; 39,47</t>
+          <t>25,97; 39,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26,33; 37,51</t>
+          <t>18,27; 38,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>39,52; 52,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>35,63; 46,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>37,55; 49,79</t>
+          <t>41,92; 59,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>40,18; 52,42</t>
+          <t>36,67; 49,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>33,34; 43,97</t>
+          <t>41,55; 51,77</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>28,98; 36,87</t>
+          <t>40,28; 57,1</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>34,54; 43,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>35,18; 44,34</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>32,26; 44,96</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>31,07; 40,62</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>36,12; 44,5</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>32,48; 47,19</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,04%</t>
+          <t>16,19%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>15,35%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>16,98%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>25,06%</t>
+          <t>22,76%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>34,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>30,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>32,46%</t>
+          <t>36,05%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>41,13%</t>
+          <t>32,76%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>24,5%</t>
+          <t>32,58%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>22,26%</t>
+          <t>37,81%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>24,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>32,27%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>26,51%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>24,16%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>24,49%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>30,34%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,28; 17,32</t>
+          <t>12,84; 20,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,64; 17,51</t>
+          <t>12,16; 19,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,67; 21,22</t>
+          <t>13,55; 21,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,19; 29,48</t>
+          <t>18,21; 30,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,1; 39,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,24; 34,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,59; 36,12</t>
+          <t>31,15; 41,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>36,63; 45,53</t>
+          <t>28,93; 36,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,9; 27,0</t>
+          <t>28,82; 36,72</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19,87; 24,76</t>
+          <t>32,54; 42,79</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>21,87; 27,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>29,4; 35,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>23,15; 30,32</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>21,24; 27,36</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>21,79; 27,46</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>27,09; 34,89</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,36%</t>
+          <t>21,17%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>18,97%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>20,53%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,14%</t>
+          <t>20,61%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>25,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>23,21%</t>
+          <t>26,56%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>22,29%</t>
+          <t>21,48%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>21,7%</t>
+          <t>23,35%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>19,31%</t>
+          <t>24,17%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>21,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>20,33%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>23,96%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>20,29%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>21,98%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>22,46%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,02; 24,28</t>
+          <t>16,02; 27,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,39; 22,77</t>
+          <t>15,16; 23,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,76; 25,48</t>
+          <t>16,76; 24,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,88; 25,27</t>
+          <t>15,23; 27,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,94; 29,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,08; 24,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,2; 27,26</t>
+          <t>22,15; 32,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,8; 27,59</t>
+          <t>17,74; 25,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,8; 25,19</t>
+          <t>20,11; 27,12</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,68; 22,1</t>
+          <t>20,09; 29,24</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>19,59; 24,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,74; 25,04</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>20,24; 27,77</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>17,85; 23,49</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>19,48; 24,65</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>19,44; 26,82</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>14,8%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,33%</t>
+          <t>12,38%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25,43%</t>
+          <t>22,83%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>34,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>30,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>32,69%</t>
+          <t>32,2%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>38,78%</t>
+          <t>27,11%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>26,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>23,9%</t>
+          <t>34,47%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>27,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>32,09%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>23,32%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>19,31%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>28,33%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,5; 21,37</t>
+          <t>11,37; 18,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,26; 19,81</t>
+          <t>9,13; 17,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,05; 24,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,3; 28,28</t>
+          <t>18,8; 29,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,86; 37,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,86; 32,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>30,32; 35,15</t>
+          <t>28,01; 36,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>35,64; 41,88</t>
+          <t>22,72; 31,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,67; 28,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>22,32; 25,56</t>
+          <t>29,25; 39,71</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>25,52; 29,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>29,95; 34,25</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>20,7; 26,25</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>16,36; 22,52</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>24,92; 32,12</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>17,47%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>17,32%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>21,36%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>23,09%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>34,26%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>30,39%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>33,11%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>35,44%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>26,04%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>23,98%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>27,34%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>29,41%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>15,27; 19,81</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15,34; 19,69</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>19,01; 24,22</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>20,17; 26,68</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>31,81; 37,24</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>28,05; 32,86</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>30,69; 35,44</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>32,46; 38,43</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>24,28; 27,87</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>22,42; 25,65</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>25,73; 29,24</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>27,37; 31,56</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece dolor crónico (pecho; espalda, cuello, hombro, cintura (cervical/lumbar); migrañas/jaquecas/cefaleas crónicas/dolor de cabeza frecuente) (tasa de respuesta: 99,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>272.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>83501</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>144017</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>234910</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>130232</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>213579</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>273756</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>418159</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>313473</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>297080</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>417772</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>653069</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>443705</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>54635; 113169</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>112564; 180657</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>188292; 282996</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>81723; 171132</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>175803; 248371</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>234167; 314474</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>372783; 464511</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>259932; 368461</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>244683; 341072</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>363171; 474791</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>585877; 721830</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>354898; 515582</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>263.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>338.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>222.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>149738</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>184420</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>274928</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>243066</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>360535</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>403479</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>489904</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>409708</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>510274</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>587899</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>764832</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>652774</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>118726; 191927</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>146094; 232609</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>219436; 347488</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>194393; 324205</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>311473; 414714</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>356266; 455391</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>433362; 552113</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>352563; 463625</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>445575; 583604</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>516779; 665726</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>680704; 857587</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>582876; 750596</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>151463</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>160447</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>223997</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>170801</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>203788</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>202243</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>270642</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>216869</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>355251</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>362691</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>494639</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>387670</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>114611; 199337</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>128233; 199494</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>182836; 272491</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>126202; 224929</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>169940; 246302</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>167063; 239828</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>233081; 314333</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>180228; 262279</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>300053; 411760</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>319032; 419845</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>438267; 554760</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>335574; 462877</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>215723</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>106514</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>250771</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>449692</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>206918</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>339393</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>665415</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>313432</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>590165</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>165715; 269281</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>78535; 147227</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>206594; 320424</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>391204; 509223</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>173378; 243243</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>288031; 390987</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>590866; 749210</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>265523; 365638</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>519057; 669257</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>298.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>454.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>496.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>546.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>446.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>670.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>748.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>844.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>689.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>600426</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>595398</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>733836</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>794870</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1227595</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1086396</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1178705</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1279443</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1828021</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1681794</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1912541</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>2074313</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>524857; 680944</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>527283; 676831</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>652936; 832074</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>694555; 918617</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1139745; 1334221</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1002682; 1174723</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1092697; 1261539</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1172037; 1387554</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>1704239; 1956526</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>1572054; 1798986</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>1800164; 2045466</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>1930353; 2225929</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
